--- a/data/trans_dic/P19-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1809377739325022</v>
+        <v>0.182234928364124</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.140829950447789</v>
+        <v>0.1408107764647634</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1456382074476274</v>
+        <v>0.145640442183533</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1366444448957515</v>
+        <v>0.1375341265653243</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2040926553687827</v>
+        <v>0.2027011601476887</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2076044100984088</v>
+        <v>0.2082126587864557</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2051363667198655</v>
+        <v>0.2075733367304295</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1488155623459991</v>
+        <v>0.1476781900800563</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1987795700508826</v>
+        <v>0.2001430866799556</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1840725081577402</v>
+        <v>0.1858797339714393</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1872712815237443</v>
+        <v>0.1881028601969714</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1495593984927432</v>
+        <v>0.1519201818572315</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2305572006610615</v>
+        <v>0.2306778783128783</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1869879248060357</v>
+        <v>0.1876772469050227</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2034458855684149</v>
+        <v>0.2006365241057971</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.197929333520122</v>
+        <v>0.1955536469261612</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2497732548551205</v>
+        <v>0.2471375429773711</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2555667595853292</v>
+        <v>0.2554496624245958</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2626332409989769</v>
+        <v>0.2607948352336985</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1901704785231802</v>
+        <v>0.189352059717604</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2338098842397414</v>
+        <v>0.2357005654320566</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2183891512458328</v>
+        <v>0.2205103734157651</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2265076277817695</v>
+        <v>0.2262937490146923</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1850429907007175</v>
+        <v>0.1846695131093827</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2349151392458607</v>
+        <v>0.2343913226077795</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2383177505474174</v>
+        <v>0.2399579255174173</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2913023476761141</v>
+        <v>0.2909314471808291</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2380063042102664</v>
+        <v>0.2355766624314574</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3475789796873291</v>
+        <v>0.3465660674231973</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3067099349231985</v>
+        <v>0.3074445272198609</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3612548327563161</v>
+        <v>0.3583958617492698</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2992239370842579</v>
+        <v>0.2996334079950785</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.295587224854349</v>
+        <v>0.293197508648216</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2773644537351023</v>
+        <v>0.2787263847764916</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3299236392867642</v>
+        <v>0.3306077625973727</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2724039445417617</v>
+        <v>0.272209040122474</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2772727994959037</v>
+        <v>0.279050840915832</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2806026871314706</v>
+        <v>0.2808923713602478</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3323143116379545</v>
+        <v>0.3332599562211921</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2823340462850727</v>
+        <v>0.278394165332464</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3949746197113483</v>
+        <v>0.393941722231033</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3532784231875589</v>
+        <v>0.3556927339113828</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4052278335265161</v>
+        <v>0.4037554093942471</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3375523939657608</v>
+        <v>0.3358135784303029</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3275925915724712</v>
+        <v>0.3267452491508763</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3081151445185069</v>
+        <v>0.3078371828079944</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3599840355680166</v>
+        <v>0.3613232858902643</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3026104168162746</v>
+        <v>0.3023790180454243</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.3838637583514433</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3579031340187737</v>
+        <v>0.3579031340187738</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.3682800734324123</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2693432357765074</v>
+        <v>0.2717856792385818</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3214895860034602</v>
+        <v>0.3210514912261337</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3410278980086146</v>
+        <v>0.3420707153322754</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3196826685726655</v>
+        <v>0.3222484582066973</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3266438008850249</v>
+        <v>0.324808087587068</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3608204558362787</v>
+        <v>0.364669252002061</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3675045175768816</v>
+        <v>0.3667240681151844</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4178178306996171</v>
+        <v>0.417759275071827</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3051226199412901</v>
+        <v>0.3072452805431553</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3546016395989141</v>
+        <v>0.3529117392107209</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3676012843223838</v>
+        <v>0.3698675299616398</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3773925634159317</v>
+        <v>0.3783365389629851</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3477971456018503</v>
+        <v>0.3517764801548119</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4147329780475311</v>
+        <v>0.4147642255721955</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4256562002904359</v>
+        <v>0.4288235045122947</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3979237151297286</v>
+        <v>0.3971285105143563</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4165449498304148</v>
+        <v>0.4136847576340919</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4584594380131036</v>
+        <v>0.4580331565133325</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4589642865469211</v>
+        <v>0.4539281361408259</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4849979760957961</v>
+        <v>0.4798531563878277</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3674059843751811</v>
+        <v>0.3660426565164864</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4242510802849364</v>
+        <v>0.4242120080215152</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4271594019370772</v>
+        <v>0.4302118126027454</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4294657144577483</v>
+        <v>0.4328977709627081</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2340211353326815</v>
+        <v>0.2333457006454011</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2326189085206884</v>
+        <v>0.2315727590631244</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2752556547987784</v>
+        <v>0.2752735322053394</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2443162820956056</v>
+        <v>0.2476902996001161</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.298061843231977</v>
+        <v>0.2963046138050197</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2883524652903057</v>
+        <v>0.2886331971842938</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3279295697076693</v>
+        <v>0.3291116163686575</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2976310633600623</v>
+        <v>0.2979133575402541</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2705609463719796</v>
+        <v>0.2712439490313696</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2638073705389998</v>
+        <v>0.2651689501659861</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3065164930808172</v>
+        <v>0.3080755774130704</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2767581495908818</v>
+        <v>0.27671625010648</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2647311914305926</v>
+        <v>0.2641544528363499</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2619088983625932</v>
+        <v>0.2620130654504744</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3091734109830441</v>
+        <v>0.3083799038024886</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2797769012473635</v>
+        <v>0.2807888421735615</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3294422041531345</v>
+        <v>0.3283002863059188</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3197650642119134</v>
+        <v>0.3191089613502966</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3604611561718813</v>
+        <v>0.3613042676673441</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3254204123334763</v>
+        <v>0.3272449328127928</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2921993106507784</v>
+        <v>0.2929291613244036</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2867196754430411</v>
+        <v>0.2862503848525246</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3297948349028233</v>
+        <v>0.3301199309614725</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2992481855762058</v>
+        <v>0.2981072357170798</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>186678</v>
+        <v>188016</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>137097</v>
+        <v>137078</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>109862</v>
+        <v>109863</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>78276</v>
+        <v>78786</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>268216</v>
+        <v>266387</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>277733</v>
+        <v>278546</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>204041</v>
+        <v>206465</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>120430</v>
+        <v>119509</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>466319</v>
+        <v>469518</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>425445</v>
+        <v>429622</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>327539</v>
+        <v>328993</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>206706</v>
+        <v>209969</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>237871</v>
+        <v>237996</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>182031</v>
+        <v>182702</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>153469</v>
+        <v>151350</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>113383</v>
+        <v>112022</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>328249</v>
+        <v>324785</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>341896</v>
+        <v>341740</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>261231</v>
+        <v>259402</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>153897</v>
+        <v>153234</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>548497</v>
+        <v>552933</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>504761</v>
+        <v>509663</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>396163</v>
+        <v>395789</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>255748</v>
+        <v>255232</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>397594</v>
+        <v>396708</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>467721</v>
+        <v>470940</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>604856</v>
+        <v>604086</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>527300</v>
+        <v>521917</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>551842</v>
+        <v>550234</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>538840</v>
+        <v>540130</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>718283</v>
+        <v>712598</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>643958</v>
+        <v>644839</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>969578</v>
+        <v>961739</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1031638</v>
+        <v>1036704</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1341036</v>
+        <v>1343816</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1189746</v>
+        <v>1188895</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>469284</v>
+        <v>472294</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>550709</v>
+        <v>551278</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>690012</v>
+        <v>691976</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>625507</v>
+        <v>616778</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>627091</v>
+        <v>625451</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>620653</v>
+        <v>624895</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>805715</v>
+        <v>802787</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>726444</v>
+        <v>722702</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1074561</v>
+        <v>1071781</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1146013</v>
+        <v>1144979</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1463222</v>
+        <v>1468665</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1321676</v>
+        <v>1320665</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>148518</v>
+        <v>149865</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>154695</v>
+        <v>154484</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>186503</v>
+        <v>187074</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>226195</v>
+        <v>228011</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>155617</v>
+        <v>154742</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>165483</v>
+        <v>167249</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>201811</v>
+        <v>201383</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>305330</v>
+        <v>305287</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>313611</v>
+        <v>315793</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>333259</v>
+        <v>331671</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>402901</v>
+        <v>405385</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>542817</v>
+        <v>544175</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>191778</v>
+        <v>193972</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>199562</v>
+        <v>199577</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>232785</v>
+        <v>234518</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>281556</v>
+        <v>280993</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>198447</v>
+        <v>197084</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>210264</v>
+        <v>210068</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>252036</v>
+        <v>249270</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>354423</v>
+        <v>350664</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>377627</v>
+        <v>376226</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>398717</v>
+        <v>398680</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>468178</v>
+        <v>471524</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>617716</v>
+        <v>622652</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>766567</v>
+        <v>764354</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>794921</v>
+        <v>791346</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>929708</v>
+        <v>929769</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>854104</v>
+        <v>865899</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1006934</v>
+        <v>1000998</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1024593</v>
+        <v>1025591</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1158280</v>
+        <v>1162455</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1098891</v>
+        <v>1099933</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1800287</v>
+        <v>1804831</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1838879</v>
+        <v>1848369</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>2117943</v>
+        <v>2128715</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1989342</v>
+        <v>1989041</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>867162</v>
+        <v>865273</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>895013</v>
+        <v>895369</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1044270</v>
+        <v>1041590</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>978070</v>
+        <v>981608</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1112945</v>
+        <v>1109088</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1136210</v>
+        <v>1133879</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1273185</v>
+        <v>1276163</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1201493</v>
+        <v>1208229</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1944266</v>
+        <v>1949123</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1998590</v>
+        <v>1995318</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>2278789</v>
+        <v>2281036</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>2151001</v>
+        <v>2142800</v>
       </c>
     </row>
     <row r="20">
